--- a/medicine/Psychotrope/Tabatière/Tabatière.xlsx
+++ b/medicine/Psychotrope/Tabatière/Tabatière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re</t>
+          <t>Tabatière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une tabatière est un objet destiné à contenir du tabac à priser.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re</t>
+          <t>Tabatière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Tabatière chez les Amérindiens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans l'Histoire de la Nouvelle-France de Marc Lescarbot, publié en 1612, on y décrit la tabatière des Sauvages :
 « Noz Sauvages font aussi grand labourage de Petun, chose tres pretieuse entr'eux, et parmi tous ces peuples universelement. C'est vne plante de la grandeur de Consolida major, dont ils succent la fumée avec vn tuyau en la façon que je vay dire pour le contentement de ceux qui n'en sçavent l'vsage. Apres qu'ils ont cuilli ceste herbe ils la mettent sécher à l'ombre, et ont certains sachets de cuir pendus à leur col ou ceinture, dans lesquels ils en ont toujours, et quant et quant vn calumet ou petunoir, qui est vn cornet troué par le côté, et dans le trou ils fichent vn long tuyau duquel ils tirent la fumée du petun qui est dans ledit cornet, après qu'ils l'ont allumé avec du charbon qu'ils mettent dessus. »</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re</t>
+          <t>Tabatière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Introduction du tabac en France et histoire de la tabatière à priser</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la cour espagnole et portugaise, le tabac fut longtemps utilisé comme simple plante d'ornement.
 Ce n'est qu'au milieu du XVIe siècle que le médecin personnel de Philippe II commença à le propager en tant que médicament universel servant à soigner les rhumes, l'asthme et les troubles circulatoires pour n'en citer que quelques-uns.
 La large feuille nervurée fut d'abord fumée dans une pipe puis fut prise sous forme de poudre hachée à l'aide d'une râpe.
-L'ambassadeur de France au Portugal Jean Nicot (1530-1600), ayant eu connaissance des vertus médicales du tabac, l'introduisit à la cour de France et conseilla ce remède à Catherine de Médicis pour soulager ses migraines[1]. Après quelques prises de tabac en poudre et plusieurs éternuements, ses migraines s'atténuèrent.
+L'ambassadeur de France au Portugal Jean Nicot (1530-1600), ayant eu connaissance des vertus médicales du tabac, l'introduisit à la cour de France et conseilla ce remède à Catherine de Médicis pour soulager ses migraines. Après quelques prises de tabac en poudre et plusieurs éternuements, ses migraines s'atténuèrent.
 Le traitement fut un réel succès. La reine mère Catherine de Médicis en assura ainsi sa promotion et toute la cour se mit à priser. Il fut d'abord vendu chez les seuls apothicaires sous divers noms : "Herbe à la reine", "Cathérinaire", "Médicée", "Herbe à Nicot", "Herbe à l'Ambassadeur"...
 En hommage à Jean Nicot, les botanistes appelèrent cette plante à tabac Nicotiana tabacum.
 Plus tard, ses vertus sternutatoires et l'agrément que l'on éprouvait à respirer une poudre odorante susceptible de masquer les odeurs fort peu agréables des rues à cette époque fit que la mode s'étendit dans tout le royaume. On ajouta au tabac à priser des herbes ou huiles fines afin d'en affiner le goût.
@@ -566,7 +582,7 @@
 Ainsi, d'abord vendu chez les seuls apothicaires, le tabac fini par trôner derrière les comptoirs d'épicerie avant de rejoindre certaines maisons de jeux et débit de boissons nommés "tabagies" .
 Il existe de nombreuses formes et tailles de tabatières, soit de poche soit de table, selon son utilisation à l'extérieur ou à l'intérieur.
 La tabatière de poche doit être plate et de petite dimension afin de tenir aisément dans la poche. Sa forme doit aider la main à la tenir horizontale ; son ouverture doit être suffisante pour permettre la pincée de deux doigts et sa fermeture parfaitement étanche afin d'éviter toute humidité non désirée.
-Quant aux tabatières dites « secouettes », elles se caractérisaient par le fait qu'à la différence des tabatières classiques, elles n'avaient pas de couvercle mais possédaient un trou à l'origine pourvu d'un bouchon de liège. Les marins français, principalement bretons, utilisaient des secouettes faites d'argile cuite. C'est à la ville de Quimper qu'est associée leur fabrication"[2].
+Quant aux tabatières dites « secouettes », elles se caractérisaient par le fait qu'à la différence des tabatières classiques, elles n'avaient pas de couvercle mais possédaient un trou à l'origine pourvu d'un bouchon de liège. Les marins français, principalement bretons, utilisaient des secouettes faites d'argile cuite. C'est à la ville de Quimper qu'est associée leur fabrication".
 </t>
         </is>
       </c>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re</t>
+          <t>Tabatière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,13 +611,15 @@
           <t>Tabatières d'Europe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tabatières européennes sont des boîtes à couvercle, dans lesquels les doigts sont trempés pour prendre le tabac qui, à l'origine, était surtout prisé plus que fumé.
 De nombreux artistes décorèrent les couvercles et l'intérieur des tabatières. L'artiste suédois Carl Gustav Klingstedt y gagna le surnom de Raphaël des tabatières. En Russie, Johann Gottlieb Scharff est connue pour ses tabatières décorèes pour Catherine II.
 	Tabatières ovales en argent doré de l'orfèvrerie strasbourgeoise du 18e siècle.
-			Tabatière de Carl Ludwig Emmerich (1784)[3].
-			Tabatière de Jean Regnard Burand (1789)[4].
+			Tabatière de Carl Ludwig Emmerich (1784).
+			Tabatière de Jean Regnard Burand (1789).
 </t>
         </is>
       </c>
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re</t>
+          <t>Tabatière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Tabatières de Chine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C'est vers 1600 que le tabac, la « drogue étrangère », arrive dans le pays, mais les tabatières de Chine, sont des fioles dont le bouchon est prolongé par une petite spatule en ivoire — protégeant ainsi le tabac de l'humidité.
 L'usage du tabac est d'abord réservé à l'élite — l'empereur, sa cour, les hauts fonctionnaires, les lettrés — et on lui prête des vertus médicinales. Ce n'est qu'au XVIIIe siècle qu'il se popularise, et tous les chinois se mirent à priser et à renifler. Ce qui explique pourquoi l'on peut trouver quantité de tabatières chinoises, différentes en quantités et en qualités selon l'époque.
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tabati%C3%A8re</t>
+          <t>Tabatière</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +685,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La comptine « J'ai du bon tabac dans ma tabatière », sur wikisource</t>
         </is>
